--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1266 +397,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>28.4336014646585</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.550991532584105</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>9.311469361284709</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>6.867159779281407</v>
+      </c>
+      <c r="F2">
         <v>7.525904355242864</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>27.83016659759261</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>1.845873981361877</v>
       </c>
-      <c r="H2" t="n">
-        <v>76.49800729272468</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>83.36516707200607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>20.53018263648863</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.163243649438078</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>8.464972146622459</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="F3">
         <v>9.05460367740157</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>23.11318920817015</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>1.615139733691643</v>
       </c>
-      <c r="H3" t="n">
-        <v>63.94133105181253</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>66.08731848283799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>24.31821177898425</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>10.58121518327808</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F4">
         <v>8.584234655198889</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>22.64149146922788</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H4" t="n">
-        <v>67.13138310065139</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>70.99416047649719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>30.58482789126097</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.03399435505607</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>9.734717968615827</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F5">
         <v>8.231457888546881</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>21.22639825240114</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H5" t="n">
-        <v>71.04213060355113</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>74.90490797939692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>31.19278318573557</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.809490121348122</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>10.15796657594695</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="F6">
         <v>10.81848751066162</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>23.58488694711238</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H6" t="n">
-        <v>78.48655133148559</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>82.77852619353646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>27.87241196206657</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.03399435505607</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>12.69745821993369</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="F7">
         <v>11.87681781061764</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>21.22639825240114</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>3.691747962723754</v>
       </c>
-      <c r="H7" t="n">
-        <v>78.39882856279887</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>83.12000091105485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>30.72512526690895</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.163243649438078</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>16.5066956859138</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="F8">
         <v>8.231457888546881</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>17.45281634086316</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>1.845873981361877</v>
       </c>
-      <c r="H8" t="n">
-        <v>75.92521281303276</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>81.07558264749382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>33.71813594739933</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>15.23694986392043</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>9.013147210306851</v>
+      </c>
+      <c r="F9">
         <v>9.642564955154917</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>13.67923442932518</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>1.153671238351173</v>
       </c>
-      <c r="H9" t="n">
-        <v>74.20605220044308</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>83.21919941074992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>48.02846826349389</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.163243649438078</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>12.69745821993369</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>7.725554751691584</v>
+      </c>
+      <c r="F10">
         <v>8.113865632996212</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>10.84904799567169</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H10" t="n">
-        <v>81.7750207522145</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>89.50057550390609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>47.88817088784591</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.03399435505607</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>10.58121518327808</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>11.58833212753738</v>
+      </c>
+      <c r="F11">
         <v>4.703690222026789</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>11.32074573461394</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>75.52781638282079</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>87.11614851035817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>37.22557033859896</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.938739415730131</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>7.618474931960215</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>9.871542182717025</v>
+      </c>
+      <c r="F12">
         <v>5.526836010881476</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>10.84904799567169</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>63.15866869284247</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>73.03021087555949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>29.83657522113839</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.421742238202096</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>9.311469361284709</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>6.867159779281407</v>
+      </c>
+      <c r="F13">
         <v>3.292583155418753</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>19.33960729663216</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H13" t="n">
-        <v>63.43271152034634</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>70.29987129962775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>22.30728272802979</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.03399435505607</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5.078983287973477</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F14">
         <v>2.469437366564065</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>19.8113050355744</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>50.7010027731978</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>54.56378014904359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14.68445865115588</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.421742238202096</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5.078983287973477</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F15">
         <v>2.939806388766743</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>12.26414121249844</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>36.38913177859664</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>40.25190915444243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>7.342229325577939</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.163243649438078</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2.962740251317861</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="F16">
         <v>1.293514811057367</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>9.433954778844951</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>22.1956828162362</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>25.20006521967181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>5.331300274623471</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.03399435505607</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.423248607331123</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="F17">
         <v>1.411107066608037</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>6.13207060624922</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>14.33172090986792</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>16.47770834089336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>3.133308056138356</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.809490121348122</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1.692994429324492</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>1.287592458615264</v>
+      </c>
+      <c r="F18">
         <v>1.175922555506697</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>6.13207060624922</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>13.94378576856689</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>15.23137822718215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.478586969781088</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.423248607331123</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>1.175922555506697</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>6.603768345191469</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="I19">
         <v>11.45702224410243</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2.197992218485115</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.692994429324492</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.4291974862050879</v>
+      </c>
+      <c r="F20">
         <v>1.999068344361385</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>8.962257039902704</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>15.24005991521972</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>15.66925740142481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>4.536281812618217</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2.539491643986739</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>1.287592458615264</v>
+      </c>
+      <c r="F21">
         <v>1.881476088810716</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>20.28300277451665</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>29.62800020307835</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>30.91559266169361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>11.92527693007881</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>8.464972146622459</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F22">
         <v>3.057398644317413</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>38.20751685432206</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>62.04291245848677</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>65.90568983433256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>27.40475404323994</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>7.195226324629091</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>14.592714530973</v>
+      </c>
+      <c r="F23">
         <v>8.231457888546881</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>34.90563268172632</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H23" t="n">
-        <v>79.43550369511524</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>94.02821822608823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>35.44847024705783</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>7.195226324629091</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>9.013147210306851</v>
+      </c>
+      <c r="F24">
         <v>7.408312099692194</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>28.30186433653486</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H24" t="n">
-        <v>80.18155505926897</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>89.19470226957583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>41.66832056745186</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.6462464719100438</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>12.27420961260257</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>8.154752237896671</v>
+      </c>
+      <c r="F25">
         <v>6.232389544185494</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>22.64149146922788</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>1.384405486021409</v>
       </c>
-      <c r="H25" t="n">
-        <v>84.84706315139927</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>93.00181538929594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>33.95196490681264</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2.06798871011214</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>11.0044637906092</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>8.154752237896671</v>
+      </c>
+      <c r="F26">
         <v>9.407380444053578</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>33.96223720384183</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.615139733691643</v>
       </c>
-      <c r="H26" t="n">
-        <v>92.00917478912103</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>100.1639270270177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>24.55204073839756</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.550991532584105</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>10.15796657594695</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="F27">
         <v>11.40644878841496</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>28.30186433653486</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>1.384405486021409</v>
       </c>
-      <c r="H27" t="n">
-        <v>77.35371745789985</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>80.35809986133546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>26.51620399746936</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>11.42771239794032</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="F28">
         <v>9.407380444053578</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>24.52828242499688</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H28" t="n">
-        <v>73.01505857280445</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>77.30703343485531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>29.27538571854642</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.421742238202096</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>8.464972146622459</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F29">
         <v>9.642564955154917</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>16.98111860192092</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H29" t="n">
-        <v>66.70872065112775</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>70.57149802697354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>32.17486481527148</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.550991532584105</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>10.58121518327808</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F30">
         <v>7.643496610793533</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>19.8113050355744</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H30" t="n">
-        <v>71.99260742517184</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>75.85538480101764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>30.11716997243435</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.163243649438078</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>10.58121518327808</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="F31">
         <v>11.52404104396563</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>18.8679095576899</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>1.153671238351173</v>
       </c>
-      <c r="H31" t="n">
-        <v>73.40725064515722</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>76.84083053479793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>34.09226228246062</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.680240826966114</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>8.041723539291334</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="F32">
         <v>8.113865632996212</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>19.8113050355744</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H32" t="n">
-        <v>72.4316000602994</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>75.8651799499401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>36.99174137918566</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.03399435505607</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>14.8137012565893</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>8.154752237896671</v>
+      </c>
+      <c r="F33">
         <v>9.877749466256258</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>11.79244347355619</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>1.153671238351173</v>
       </c>
-      <c r="H33" t="n">
-        <v>75.66330116899466</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>83.81805340689134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>44.24043912099826</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.421742238202096</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>13.54395543459593</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="F34">
         <v>6.702758566388173</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>7.547163823075961</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H34" t="n">
-        <v>73.68679343093066</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>83.1291381274426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>46.57872871513138</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>9.734717968615827</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>11.58833212753738</v>
+      </c>
+      <c r="F35">
         <v>3.527767666520092</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>10.37735025672944</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>71.1233096676708</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>82.71164179520818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>43.49218645087567</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.6462464719100438</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>10.15796657594695</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>8.58394972410176</v>
+      </c>
+      <c r="F36">
         <v>4.938874733128129</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>15.56602538509417</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>74.80129961695498</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>83.38524934105673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>26.93709612441332</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.421742238202096</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>9.311469361284709</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>10.30073966892211</v>
+      </c>
+      <c r="F37">
         <v>2.351845111013394</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>16.03772312403642</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>56.05987595894994</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>66.36061562787205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>23.10230119003502</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.163243649438078</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>7.618474931960215</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="F38">
         <v>3.174990899868082</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>15.56602538509417</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>50.62503605639557</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>54.91701091844646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>16.04066661575307</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.809490121348122</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>4.655734680642355</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="F39">
         <v>1.881476088810716</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>12.73583895144069</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H39" t="n">
-        <v>37.35394070566518</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>42.93350802633132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>10.00787946288967</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.163243649438078</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1.692994429324492</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="F40">
         <v>1.763883833260046</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>6.13207060624922</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>20.76007198116151</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>23.76445438459712</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>5.37806606650613</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.809490121348122</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1.692994429324492</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="F41">
         <v>1.881476088810716</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>7.075466084133715</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>17.83749279012318</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>19.98348022114861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>3.133308056138356</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.03399435505607</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>1.269745821993369</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="F42">
         <v>1.763883833260046</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>4.716977389422476</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>11.91790945587032</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>13.63469940069067</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2.385055386015763</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>1.175922555506697</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>8.490559300960458</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43">
         <v>13.67353022343722</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1.823865883423819</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.4291974862050879</v>
+      </c>
+      <c r="F44">
         <v>1.881476088810716</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>10.84904799567169</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>15.7886350657145</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>16.21783255191959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>5.518363442154119</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.6462464719100438</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>3.385988858648984</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="F45">
         <v>2.234252855462725</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>17.92451407980541</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>29.70936570798128</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>31.85535313900672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>9.774050503476364</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>8.464972146622459</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="F46">
         <v>3.880544433172101</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>39.15091233220655</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H46" t="n">
-        <v>61.96268215848819</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>67.11305199294924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>28.85449359160247</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.03399435505607</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>9.734717968615827</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>14.592714530973</v>
+      </c>
+      <c r="F47">
         <v>8.34905014409755</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>40.09430781009105</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H47" t="n">
-        <v>88.52803236480342</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>103.1207468957764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>34.46638861752191</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.938739415730131</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>6.348729109966844</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="F48">
         <v>7.643496610793533</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>29.7169575533616</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>1.153671238351173</v>
       </c>
-      <c r="H48" t="n">
-        <v>81.2679825457252</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>90.71032724223714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>43.81954699405433</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.516997177528035</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>11.85096100527145</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>8.58394972410176</v>
+      </c>
+      <c r="F49">
         <v>6.937943077489514</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>26.88677111970811</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H49" t="n">
-        <v>90.24295362172167</v>
+      <c r="I49">
+        <v>98.82690334582344</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>28.4336014646585</v>
+        <v>54.65380880332564</v>
       </c>
       <c r="C2">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="D2">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="E2">
-        <v>6.867159779281407</v>
+        <v>13.19975023442713</v>
       </c>
       <c r="F2">
-        <v>7.525904355242864</v>
+        <v>14.46595986846083</v>
       </c>
       <c r="G2">
-        <v>27.83016659759261</v>
+        <v>53.49391304088158</v>
       </c>
       <c r="H2">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="I2">
-        <v>83.36516707200607</v>
+        <v>160.2408301204428</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>20.53018263648863</v>
+        <v>39.46220734319071</v>
       </c>
       <c r="C3">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D3">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="E3">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="F3">
-        <v>9.05460367740157</v>
+        <v>17.40435796674194</v>
       </c>
       <c r="G3">
-        <v>23.11318920817015</v>
+        <v>44.42714811869829</v>
       </c>
       <c r="H3">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="I3">
-        <v>66.08731848283799</v>
+        <v>127.0301151676107</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>24.31821177898425</v>
+        <v>46.74338910810746</v>
       </c>
       <c r="C4">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D4">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="E4">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F4">
-        <v>8.584234655198889</v>
+        <v>16.50023547496313</v>
       </c>
       <c r="G4">
-        <v>22.64149146922788</v>
+        <v>43.52047162647995</v>
       </c>
       <c r="H4">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I4">
-        <v>70.99416047649719</v>
+        <v>136.4618294188958</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>30.58482789126097</v>
+        <v>58.78880091673518</v>
       </c>
       <c r="C5">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D5">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="E5">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F5">
-        <v>8.231457888546881</v>
+        <v>15.82214360612904</v>
       </c>
       <c r="G5">
-        <v>21.22639825240114</v>
+        <v>40.80044214982495</v>
       </c>
       <c r="H5">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I5">
-        <v>74.90490797939692</v>
+        <v>143.9788949783618</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>31.19278318573557</v>
+        <v>59.95738564443784</v>
       </c>
       <c r="C6">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D6">
-        <v>10.15796657594695</v>
+        <v>19.52519323879624</v>
       </c>
       <c r="E6">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="F6">
-        <v>10.81848751066162</v>
+        <v>20.79481731091245</v>
       </c>
       <c r="G6">
-        <v>23.58488694711238</v>
+        <v>45.33382461091661</v>
       </c>
       <c r="H6">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I6">
-        <v>82.77852619353646</v>
+        <v>159.1132150187138</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>27.87241196206657</v>
+        <v>53.57511520852317</v>
       </c>
       <c r="C7">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D7">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="E7">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="F7">
-        <v>11.87681781061764</v>
+        <v>22.82909291741474</v>
       </c>
       <c r="G7">
-        <v>21.22639825240114</v>
+        <v>40.80044214982495</v>
       </c>
       <c r="H7">
-        <v>3.691747962723754</v>
+        <v>7.09611434751093</v>
       </c>
       <c r="I7">
-        <v>83.12000091105485</v>
+        <v>159.7695825895126</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>30.72512526690895</v>
+        <v>59.05847431543579</v>
       </c>
       <c r="C8">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D8">
-        <v>16.5066956859138</v>
+        <v>31.72843901304389</v>
       </c>
       <c r="E8">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="F8">
-        <v>8.231457888546881</v>
+        <v>15.82214360612904</v>
       </c>
       <c r="G8">
-        <v>17.45281634086316</v>
+        <v>33.5470302120783</v>
       </c>
       <c r="H8">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="I8">
-        <v>81.07558264749382</v>
+        <v>155.8398923942845</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>33.71813594739933</v>
+        <v>64.81150682104898</v>
       </c>
       <c r="C9">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D9">
-        <v>15.23694986392043</v>
+        <v>29.28778985819436</v>
       </c>
       <c r="E9">
-        <v>9.013147210306851</v>
+        <v>17.32467218268562</v>
       </c>
       <c r="F9">
-        <v>9.642564955154917</v>
+        <v>18.53451108146544</v>
       </c>
       <c r="G9">
-        <v>13.67923442932518</v>
+        <v>26.29361827433164</v>
       </c>
       <c r="H9">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I9">
-        <v>83.21919941074992</v>
+        <v>159.9602575500043</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>48.02846826349389</v>
+        <v>92.31819348851224</v>
       </c>
       <c r="C10">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D10">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="E10">
-        <v>7.725554751691584</v>
+        <v>14.84971901373054</v>
       </c>
       <c r="F10">
-        <v>8.113865632996212</v>
+        <v>15.59611298318434</v>
       </c>
       <c r="G10">
-        <v>10.84904799567169</v>
+        <v>20.85355932102164</v>
       </c>
       <c r="H10">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I10">
-        <v>89.50057550390609</v>
+        <v>172.0340403398434</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>47.88817088784591</v>
+        <v>92.04852008981162</v>
       </c>
       <c r="C11">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D11">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="E11">
-        <v>11.58833212753738</v>
+        <v>22.2745785205958</v>
       </c>
       <c r="F11">
-        <v>4.703690222026789</v>
+        <v>9.041224917788021</v>
       </c>
       <c r="G11">
-        <v>11.32074573461394</v>
+        <v>21.76023581323998</v>
       </c>
       <c r="I11">
-        <v>87.11614851035817</v>
+        <v>167.4508004300897</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>37.22557033859896</v>
+        <v>71.55334178856447</v>
       </c>
       <c r="C12">
-        <v>1.938739415730131</v>
+        <v>3.726558996702827</v>
       </c>
       <c r="D12">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="E12">
-        <v>9.871542182717025</v>
+        <v>18.97464096198901</v>
       </c>
       <c r="F12">
-        <v>5.526836010881476</v>
+        <v>10.62343927840092</v>
       </c>
       <c r="G12">
-        <v>10.84904799567169</v>
+        <v>20.85355932102164</v>
       </c>
       <c r="I12">
-        <v>73.03021087555949</v>
+        <v>140.3754352757761</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>29.83657522113839</v>
+        <v>57.35054279033183</v>
       </c>
       <c r="C13">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D13">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="E13">
-        <v>6.867159779281407</v>
+        <v>13.19975023442713</v>
       </c>
       <c r="F13">
-        <v>3.292583155418753</v>
+        <v>6.328857442451612</v>
       </c>
       <c r="G13">
-        <v>19.33960729663216</v>
+        <v>37.1737361809516</v>
       </c>
       <c r="H13">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I13">
-        <v>70.29987129962775</v>
+        <v>135.1272975280269</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>22.30728272802979</v>
+        <v>42.87807039339857</v>
       </c>
       <c r="C14">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D14">
-        <v>5.078983287973477</v>
+        <v>9.762596619398121</v>
       </c>
       <c r="E14">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F14">
-        <v>2.469437366564065</v>
+        <v>4.74664308183871</v>
       </c>
       <c r="G14">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="I14">
-        <v>54.56378014904359</v>
+        <v>104.8800804062455</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>14.68445865115588</v>
+        <v>28.22581573066489</v>
       </c>
       <c r="C15">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D15">
-        <v>5.078983287973477</v>
+        <v>9.762596619398121</v>
       </c>
       <c r="E15">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F15">
-        <v>2.939806388766743</v>
+        <v>5.650765573617513</v>
       </c>
       <c r="G15">
-        <v>12.26414121249844</v>
+        <v>23.57358879767664</v>
       </c>
       <c r="I15">
-        <v>40.25190915444243</v>
+        <v>77.37043615913782</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>7.342229325577939</v>
+        <v>14.11290786533244</v>
       </c>
       <c r="C16">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D16">
-        <v>2.962740251317861</v>
+        <v>5.694848027982236</v>
       </c>
       <c r="E16">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="F16">
-        <v>1.293514811057367</v>
+        <v>2.486336852391706</v>
       </c>
       <c r="G16">
-        <v>9.433954778844951</v>
+        <v>18.13352984436665</v>
       </c>
       <c r="I16">
-        <v>25.20006521967181</v>
+        <v>48.43844871565661</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>5.331300274623471</v>
+        <v>10.24758915062356</v>
       </c>
       <c r="C17">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D17">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="E17">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="F17">
-        <v>1.411107066608037</v>
+        <v>2.712367475336406</v>
       </c>
       <c r="G17">
-        <v>6.13207060624922</v>
+        <v>11.78679439883832</v>
       </c>
       <c r="I17">
-        <v>16.47770834089336</v>
+        <v>31.67272082291478</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>3.133308056138356</v>
+        <v>6.022705904313844</v>
       </c>
       <c r="C18">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D18">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="E18">
-        <v>1.287592458615264</v>
+        <v>2.474953168955089</v>
       </c>
       <c r="F18">
-        <v>1.175922555506697</v>
+        <v>2.260306229447005</v>
       </c>
       <c r="G18">
-        <v>6.13207060624922</v>
+        <v>11.78679439883832</v>
       </c>
       <c r="I18">
-        <v>15.23137822718215</v>
+        <v>29.27708030494293</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>2.478586969781088</v>
+        <v>4.764230043710953</v>
       </c>
       <c r="C19">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D19">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="F19">
-        <v>1.175922555506697</v>
+        <v>2.260306229447005</v>
       </c>
       <c r="G19">
-        <v>6.603768345191469</v>
+        <v>12.69347089105665</v>
       </c>
       <c r="I19">
-        <v>11.45702224410243</v>
+        <v>22.02218048117891</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>2.197992218485115</v>
+        <v>4.224883246309711</v>
       </c>
       <c r="C20">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="D20">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="E20">
-        <v>0.4291974862050879</v>
+        <v>0.8249843896516958</v>
       </c>
       <c r="F20">
-        <v>1.999068344361385</v>
+        <v>3.842520590059909</v>
       </c>
       <c r="G20">
-        <v>8.962257039902704</v>
+        <v>17.22685335214831</v>
       </c>
       <c r="I20">
-        <v>15.66925740142481</v>
+        <v>30.1187522506429</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>4.536281812618217</v>
+        <v>8.719439891320045</v>
       </c>
       <c r="C21">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="D21">
-        <v>2.539491643986739</v>
+        <v>4.88129830969906</v>
       </c>
       <c r="E21">
-        <v>1.287592458615264</v>
+        <v>2.474953168955089</v>
       </c>
       <c r="F21">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="G21">
-        <v>20.28300277451665</v>
+        <v>38.98708916538829</v>
       </c>
       <c r="I21">
-        <v>30.91559266169361</v>
+        <v>59.42458230181825</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>11.92527693007881</v>
+        <v>22.92223888955269</v>
       </c>
       <c r="C22">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="D22">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="E22">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F22">
-        <v>3.057398644317413</v>
+        <v>5.876796196562212</v>
       </c>
       <c r="G22">
-        <v>38.20751685432206</v>
+        <v>73.44079586968492</v>
       </c>
       <c r="I22">
-        <v>65.90568983433256</v>
+        <v>126.6809966276692</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>27.40475404323994</v>
+        <v>52.67620387952109</v>
       </c>
       <c r="C23">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D23">
-        <v>7.195226324629091</v>
+        <v>13.830345210814</v>
       </c>
       <c r="E23">
-        <v>14.592714530973</v>
+        <v>28.04946924815766</v>
       </c>
       <c r="F23">
-        <v>8.231457888546881</v>
+        <v>15.82214360612904</v>
       </c>
       <c r="G23">
-        <v>34.90563268172632</v>
+        <v>67.09406042415661</v>
       </c>
       <c r="H23">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I23">
-        <v>94.02821822608823</v>
+        <v>180.7368745543373</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>35.44847024705783</v>
+        <v>68.13747873835665</v>
       </c>
       <c r="C24">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D24">
-        <v>7.195226324629091</v>
+        <v>13.830345210814</v>
       </c>
       <c r="E24">
-        <v>9.013147210306851</v>
+        <v>17.32467218268562</v>
       </c>
       <c r="F24">
-        <v>7.408312099692194</v>
+        <v>14.23992924551613</v>
       </c>
       <c r="G24">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="H24">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I24">
-        <v>89.19470226957583</v>
+        <v>171.4461043624781</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>41.66832056745186</v>
+        <v>80.09299941408415</v>
       </c>
       <c r="C25">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="D25">
-        <v>12.27420961260257</v>
+        <v>23.59294183021213</v>
       </c>
       <c r="E25">
-        <v>8.154752237896671</v>
+        <v>15.67470340338222</v>
       </c>
       <c r="F25">
-        <v>6.232389544185494</v>
+        <v>11.97962301606913</v>
       </c>
       <c r="G25">
-        <v>22.64149146922788</v>
+        <v>43.52047162647995</v>
       </c>
       <c r="H25">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I25">
-        <v>93.00181538929594</v>
+        <v>178.7639685027784</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>33.95196490681264</v>
+        <v>65.26096248555002</v>
       </c>
       <c r="C26">
-        <v>2.06798871011214</v>
+        <v>3.974996263149681</v>
       </c>
       <c r="D26">
-        <v>11.0044637906092</v>
+        <v>21.15229267536259</v>
       </c>
       <c r="E26">
-        <v>8.154752237896671</v>
+        <v>15.67470340338222</v>
       </c>
       <c r="F26">
-        <v>9.407380444053578</v>
+        <v>18.08244983557604</v>
       </c>
       <c r="G26">
-        <v>33.96223720384183</v>
+        <v>65.2807074397199</v>
       </c>
       <c r="H26">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="I26">
-        <v>100.1639270270177</v>
+        <v>192.5306621297765</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>24.55204073839756</v>
+        <v>47.19284477260852</v>
       </c>
       <c r="C27">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="D27">
-        <v>10.15796657594695</v>
+        <v>19.52519323879624</v>
       </c>
       <c r="E27">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="F27">
-        <v>11.40644878841496</v>
+        <v>21.92497042563595</v>
       </c>
       <c r="G27">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="H27">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I27">
-        <v>80.35809986133546</v>
+        <v>154.4607787753814</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>26.51620399746936</v>
+        <v>50.96827235441717</v>
       </c>
       <c r="C28">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D28">
-        <v>11.42771239794032</v>
+        <v>21.96584239364577</v>
       </c>
       <c r="E28">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="F28">
-        <v>9.407380444053578</v>
+        <v>18.08244983557604</v>
       </c>
       <c r="G28">
-        <v>24.52828242499688</v>
+        <v>47.14717759535328</v>
       </c>
       <c r="H28">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I28">
-        <v>77.30703343485531</v>
+        <v>148.5961540873566</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>29.27538571854642</v>
+        <v>56.27184919552938</v>
       </c>
       <c r="C29">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D29">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="E29">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F29">
-        <v>9.642564955154917</v>
+        <v>18.53451108146544</v>
       </c>
       <c r="G29">
-        <v>16.98111860192092</v>
+        <v>32.64035371985995</v>
       </c>
       <c r="H29">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I29">
-        <v>70.57149802697354</v>
+        <v>135.6494063871767</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>32.17486481527148</v>
+        <v>61.84509943534217</v>
       </c>
       <c r="C30">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="D30">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="E30">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F30">
-        <v>7.643496610793533</v>
+        <v>14.69199049140553</v>
       </c>
       <c r="G30">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="H30">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I30">
-        <v>75.85538480101764</v>
+        <v>145.805859407944</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>30.11716997243435</v>
+        <v>57.88988958773307</v>
       </c>
       <c r="C31">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D31">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="E31">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="F31">
-        <v>11.52404104396563</v>
+        <v>22.15100104858065</v>
       </c>
       <c r="G31">
-        <v>18.8679095576899</v>
+        <v>36.2670596887333</v>
       </c>
       <c r="H31">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I31">
-        <v>76.84083053479793</v>
+        <v>147.7000395309589</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>34.09226228246062</v>
+        <v>65.53063588425061</v>
       </c>
       <c r="C32">
-        <v>1.680240826966114</v>
+        <v>3.229684463809117</v>
       </c>
       <c r="D32">
-        <v>8.041723539291334</v>
+        <v>15.45744464738036</v>
       </c>
       <c r="E32">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="F32">
-        <v>8.113865632996212</v>
+        <v>15.59611298318434</v>
       </c>
       <c r="G32">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="H32">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I32">
-        <v>75.8651799499401</v>
+        <v>145.8246872091663</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>36.99174137918566</v>
+        <v>71.10388612406348</v>
       </c>
       <c r="C33">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D33">
-        <v>14.8137012565893</v>
+        <v>28.47424013991118</v>
       </c>
       <c r="E33">
-        <v>8.154752237896671</v>
+        <v>15.67470340338222</v>
       </c>
       <c r="F33">
-        <v>9.877749466256258</v>
+        <v>18.98657232735484</v>
       </c>
       <c r="G33">
-        <v>11.79244347355619</v>
+        <v>22.6669123054583</v>
       </c>
       <c r="H33">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I33">
-        <v>83.81805340689134</v>
+        <v>161.1113481653421</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>44.24043912099826</v>
+        <v>85.03701172359547</v>
       </c>
       <c r="C34">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D34">
-        <v>13.54395543459593</v>
+        <v>26.03359098506165</v>
       </c>
       <c r="E34">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="F34">
-        <v>6.702758566388173</v>
+        <v>12.88374550784793</v>
       </c>
       <c r="G34">
-        <v>7.547163823075961</v>
+        <v>14.50682387549332</v>
       </c>
       <c r="H34">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I34">
-        <v>83.1291381274426</v>
+        <v>159.7871457419705</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>46.57872871513138</v>
+        <v>89.53156836860582</v>
       </c>
       <c r="C35">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D35">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="E35">
-        <v>11.58833212753738</v>
+        <v>22.2745785205958</v>
       </c>
       <c r="F35">
-        <v>3.527767666520092</v>
+        <v>6.780918688341015</v>
       </c>
       <c r="G35">
-        <v>10.37735025672944</v>
+        <v>19.94688282880331</v>
       </c>
       <c r="I35">
-        <v>82.71164179520818</v>
+        <v>158.984652791987</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>43.49218645087567</v>
+        <v>83.59875359719217</v>
       </c>
       <c r="C36">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="D36">
-        <v>10.15796657594695</v>
+        <v>19.52519323879624</v>
       </c>
       <c r="E36">
-        <v>8.58394972410176</v>
+        <v>16.49968779303393</v>
       </c>
       <c r="F36">
-        <v>4.938874733128129</v>
+        <v>9.49328616367742</v>
       </c>
       <c r="G36">
-        <v>15.56602538509417</v>
+        <v>29.92032424320497</v>
       </c>
       <c r="I36">
-        <v>83.38524934105673</v>
+        <v>160.279431368139</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>26.93709612441332</v>
+        <v>51.777292550519</v>
       </c>
       <c r="C37">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D37">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="E37">
-        <v>10.30073966892211</v>
+        <v>19.79962535164071</v>
       </c>
       <c r="F37">
-        <v>2.351845111013394</v>
+        <v>4.520612458894011</v>
       </c>
       <c r="G37">
-        <v>16.03772312403642</v>
+        <v>30.82700073542329</v>
       </c>
       <c r="I37">
-        <v>66.36061562787205</v>
+        <v>127.5554348296223</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>23.10230119003502</v>
+        <v>44.40621965270208</v>
       </c>
       <c r="C38">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D38">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="E38">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="F38">
-        <v>3.174990899868082</v>
+        <v>6.102826819506914</v>
       </c>
       <c r="G38">
-        <v>15.56602538509417</v>
+        <v>29.92032424320497</v>
       </c>
       <c r="I38">
-        <v>54.91701091844646</v>
+        <v>105.5590449390498</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>16.04066661575307</v>
+        <v>30.83265858477089</v>
       </c>
       <c r="C39">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D39">
-        <v>4.655734680642355</v>
+        <v>8.949046901114942</v>
       </c>
       <c r="E39">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="F39">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="G39">
-        <v>12.73583895144069</v>
+        <v>24.48026528989498</v>
       </c>
       <c r="H39">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I39">
-        <v>42.93350802633132</v>
+        <v>82.52488668534347</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>10.00787946288967</v>
+        <v>19.23670244064423</v>
       </c>
       <c r="C40">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D40">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="E40">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="F40">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="G40">
-        <v>6.13207060624922</v>
+        <v>11.78679439883832</v>
       </c>
       <c r="I40">
-        <v>23.76445438459712</v>
+        <v>45.67898118236933</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>5.37806606650613</v>
+        <v>10.33748028352376</v>
       </c>
       <c r="C41">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D41">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="E41">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="F41">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="G41">
-        <v>7.075466084133715</v>
+        <v>13.60014738327498</v>
       </c>
       <c r="I41">
-        <v>19.98348022114861</v>
+        <v>38.41136018556112</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>3.133308056138356</v>
+        <v>6.022705904313844</v>
       </c>
       <c r="C42">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D42">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E42">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="F42">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="G42">
-        <v>4.716977389422476</v>
+        <v>9.066764922183326</v>
       </c>
       <c r="I42">
-        <v>13.63469940069067</v>
+        <v>26.20801501569883</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>2.385055386015763</v>
+        <v>4.584447777910539</v>
       </c>
       <c r="C43">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D43">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="F43">
-        <v>1.175922555506697</v>
+        <v>2.260306229447005</v>
       </c>
       <c r="G43">
-        <v>8.490559300960458</v>
+        <v>16.32017685992998</v>
       </c>
       <c r="I43">
-        <v>13.67353022343722</v>
+        <v>26.282653902535</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>1.823865883423819</v>
+        <v>3.505754183108059</v>
       </c>
       <c r="C44">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="D44">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="E44">
-        <v>0.4291974862050879</v>
+        <v>0.8249843896516958</v>
       </c>
       <c r="F44">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="G44">
-        <v>10.84904799567169</v>
+        <v>20.85355932102164</v>
       </c>
       <c r="I44">
-        <v>16.21783255191959</v>
+        <v>31.17319909680352</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>5.518363442154119</v>
+        <v>10.60715368222438</v>
       </c>
       <c r="C45">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="D45">
-        <v>3.385988858648984</v>
+        <v>6.508397746265412</v>
       </c>
       <c r="E45">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="F45">
-        <v>2.234252855462725</v>
+        <v>4.294581835949311</v>
       </c>
       <c r="G45">
-        <v>17.92451407980541</v>
+        <v>34.45370670429663</v>
       </c>
       <c r="I45">
-        <v>31.85535313900672</v>
+        <v>61.23094824922849</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>9.774050503476364</v>
+        <v>18.78724677614318</v>
       </c>
       <c r="D46">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="E46">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="F46">
-        <v>3.880544433172101</v>
+        <v>7.459010557175115</v>
       </c>
       <c r="G46">
-        <v>39.15091233220655</v>
+        <v>75.25414885412157</v>
       </c>
       <c r="H46">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I46">
-        <v>67.11305199294924</v>
+        <v>129.0017346690821</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>28.85449359160247</v>
+        <v>55.46282899942751</v>
       </c>
       <c r="C47">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D47">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="E47">
-        <v>14.592714530973</v>
+        <v>28.04946924815766</v>
       </c>
       <c r="F47">
-        <v>8.34905014409755</v>
+        <v>16.04817422907374</v>
       </c>
       <c r="G47">
-        <v>40.09430781009105</v>
+        <v>77.06750183855829</v>
       </c>
       <c r="H47">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I47">
-        <v>103.1207468957764</v>
+        <v>198.214130260744</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>34.46638861752191</v>
+        <v>66.24976494745231</v>
       </c>
       <c r="C48">
-        <v>1.938739415730131</v>
+        <v>3.726558996702827</v>
       </c>
       <c r="D48">
-        <v>6.348729109966844</v>
+        <v>12.20324577424765</v>
       </c>
       <c r="E48">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="F48">
-        <v>7.643496610793533</v>
+        <v>14.69199049140553</v>
       </c>
       <c r="G48">
-        <v>29.7169575533616</v>
+        <v>57.12061900975493</v>
       </c>
       <c r="H48">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I48">
-        <v>90.71032724223714</v>
+        <v>174.3593715254977</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>43.81954699405433</v>
+        <v>84.22799152749363</v>
       </c>
       <c r="C49">
-        <v>0.516997177528035</v>
+        <v>0.9937490657874202</v>
       </c>
       <c r="D49">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="E49">
-        <v>8.58394972410176</v>
+        <v>16.49968779303393</v>
       </c>
       <c r="F49">
-        <v>6.937943077489514</v>
+        <v>13.33580675373733</v>
       </c>
       <c r="G49">
-        <v>26.88677111970811</v>
+        <v>51.68056005644495</v>
       </c>
       <c r="H49">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I49">
-        <v>98.82690334582344</v>
+        <v>189.9606944551456</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>21.9636801732991</v>
+        <v>12.80363371342707</v>
       </c>
       <c r="C2">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="D2">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="E2">
-        <v>5.30457252411558</v>
+        <v>3.092277936538694</v>
       </c>
       <c r="F2">
-        <v>5.813423124708558</v>
+        <v>3.388910224636307</v>
       </c>
       <c r="G2">
-        <v>21.49755383885896</v>
+        <v>12.53190735412553</v>
       </c>
       <c r="H2">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="I2">
-        <v>64.39584761849572</v>
+        <v>37.53928481326261</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>15.8586440724972</v>
+        <v>9.244728947688293</v>
       </c>
       <c r="C3">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D3">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="E3">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="F3">
-        <v>6.994274696914984</v>
+        <v>4.077282614015557</v>
       </c>
       <c r="G3">
-        <v>17.85390064583202</v>
+        <v>10.40785526020595</v>
       </c>
       <c r="H3">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="I3">
-        <v>51.04948553464727</v>
+        <v>29.75907993957733</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>18.7847264640058</v>
+        <v>10.95047620227315</v>
       </c>
       <c r="C4">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D4">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="E4">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F4">
-        <v>6.6309357516207</v>
+        <v>3.865475724975788</v>
       </c>
       <c r="G4">
-        <v>17.48953532652932</v>
+        <v>10.19545005081399</v>
       </c>
       <c r="H4">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I4">
-        <v>54.83980060759362</v>
+        <v>31.96862795109334</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>23.62540597588422</v>
+        <v>13.77232968516661</v>
       </c>
       <c r="C5">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D5">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="E5">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F5">
-        <v>6.358431542649986</v>
+        <v>3.706620558195961</v>
       </c>
       <c r="G5">
-        <v>16.39643936862124</v>
+        <v>9.558234422638119</v>
       </c>
       <c r="H5">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I5">
-        <v>57.8606774212108</v>
+        <v>33.72963520988412</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>24.09502413748438</v>
+        <v>14.04609159022344</v>
       </c>
       <c r="C6">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D6">
-        <v>7.846572983815314</v>
+        <v>4.574126266534197</v>
       </c>
       <c r="E6">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="F6">
-        <v>8.356795741768554</v>
+        <v>4.87155844791469</v>
       </c>
       <c r="G6">
-        <v>18.21826596513472</v>
+        <v>10.62026046959791</v>
       </c>
       <c r="H6">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I6">
-        <v>63.9426938860252</v>
+        <v>37.27512077696971</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>21.53018648566819</v>
+        <v>12.55093041645153</v>
       </c>
       <c r="C7">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D7">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="E7">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="F7">
-        <v>9.174308368680693</v>
+        <v>5.348123948254172</v>
       </c>
       <c r="G7">
-        <v>16.39643936862124</v>
+        <v>9.558234422638119</v>
       </c>
       <c r="H7">
-        <v>2.851709504139907</v>
+        <v>1.662391896986985</v>
       </c>
       <c r="I7">
-        <v>64.20646776961721</v>
+        <v>37.42888663779235</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>23.73377939779194</v>
+        <v>13.8355055094105</v>
       </c>
       <c r="C8">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D8">
-        <v>12.75068109869988</v>
+        <v>7.432955183118072</v>
       </c>
       <c r="E8">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="F8">
-        <v>6.358431542649986</v>
+        <v>3.706620558195961</v>
       </c>
       <c r="G8">
-        <v>13.48151681419969</v>
+        <v>7.858992747502455</v>
       </c>
       <c r="H8">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="I8">
-        <v>62.62724647620779</v>
+        <v>36.50828631791339</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>26.04574573182343</v>
+        <v>15.18325642661334</v>
       </c>
       <c r="C9">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D9">
-        <v>11.76985947572296</v>
+        <v>6.861189399801296</v>
       </c>
       <c r="E9">
-        <v>6.962251437901697</v>
+        <v>4.058614791707037</v>
       </c>
       <c r="F9">
-        <v>7.448448378532841</v>
+        <v>4.342041225315268</v>
       </c>
       <c r="G9">
-        <v>10.56659425977813</v>
+        <v>6.159751072366789</v>
       </c>
       <c r="H9">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I9">
-        <v>64.28309415560922</v>
+        <v>37.47355566280476</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>37.09983476641145</v>
+        <v>21.62719049948948</v>
       </c>
       <c r="C10">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D10">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="E10">
-        <v>5.967644089630027</v>
+        <v>3.478812678606031</v>
       </c>
       <c r="F10">
-        <v>6.267596806326416</v>
+        <v>3.653668835936018</v>
       </c>
       <c r="G10">
-        <v>8.380402343961968</v>
+        <v>4.88531981601504</v>
       </c>
       <c r="H10">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I10">
-        <v>69.13517508984364</v>
+        <v>40.30205555624995</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>36.99146134450371</v>
+        <v>21.56401467524557</v>
       </c>
       <c r="C11">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D11">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="E11">
-        <v>8.95146613444504</v>
+        <v>5.218219017909045</v>
       </c>
       <c r="F11">
-        <v>3.63338945294285</v>
+        <v>2.118068890397692</v>
       </c>
       <c r="G11">
-        <v>8.744767663264662</v>
+        <v>5.097725025406997</v>
       </c>
       <c r="I11">
-        <v>67.29331232237247</v>
+        <v>39.22834950885588</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>28.75508127951656</v>
+        <v>16.76265203271043</v>
       </c>
       <c r="C12">
-        <v>1.497589129516089</v>
+        <v>0.873013197981472</v>
       </c>
       <c r="D12">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="E12">
-        <v>7.625323003416145</v>
+        <v>4.445149533774374</v>
       </c>
       <c r="F12">
-        <v>4.269232607207848</v>
+        <v>2.488730946217288</v>
       </c>
       <c r="G12">
-        <v>8.380402343961968</v>
+        <v>4.88531981601504</v>
       </c>
       <c r="I12">
-        <v>56.41255810148009</v>
+        <v>32.88546022659925</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>23.04741439237634</v>
+        <v>13.4353919558659</v>
       </c>
       <c r="C13">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D13">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="E13">
-        <v>5.30457252411558</v>
+        <v>3.092277936538694</v>
       </c>
       <c r="F13">
-        <v>2.543372617059995</v>
+        <v>1.482648223278385</v>
       </c>
       <c r="G13">
-        <v>14.93897809141046</v>
+        <v>8.708613585070287</v>
       </c>
       <c r="H13">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I13">
-        <v>54.30349339911361</v>
+        <v>31.65598995049104</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>17.23137408332839</v>
+        <v>10.04495605477748</v>
       </c>
       <c r="C14">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D14">
-        <v>3.923286491907657</v>
+        <v>2.287063133267099</v>
       </c>
       <c r="E14">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F14">
-        <v>1.907529462794996</v>
+        <v>1.111986167458788</v>
       </c>
       <c r="G14">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="I14">
-        <v>42.14806969596781</v>
+        <v>24.57003752819208</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>11.34308482634196</v>
+        <v>6.61240293752648</v>
       </c>
       <c r="C15">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D15">
-        <v>3.923286491907657</v>
+        <v>2.287063133267099</v>
       </c>
       <c r="E15">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F15">
-        <v>2.270868408089281</v>
+        <v>1.323793056498558</v>
       </c>
       <c r="G15">
-        <v>9.473498301870054</v>
+        <v>5.522535444190913</v>
       </c>
       <c r="I15">
-        <v>31.09279210133577</v>
+        <v>18.12541058930581</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>5.671542413170981</v>
+        <v>3.30620146876324</v>
       </c>
       <c r="C16">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D16">
-        <v>2.288583786946133</v>
+        <v>1.334120161072474</v>
       </c>
       <c r="E16">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="F16">
-        <v>0.9991820995592837</v>
+        <v>0.5824689448593653</v>
       </c>
       <c r="G16">
-        <v>7.287306386053887</v>
+        <v>4.248104187839163</v>
       </c>
       <c r="I16">
-        <v>19.4659186427405</v>
+        <v>11.34757427855881</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>4.118190032493581</v>
+        <v>2.400681321267573</v>
       </c>
       <c r="C17">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D17">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="E17">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="F17">
-        <v>1.090016835882855</v>
+        <v>0.6354206671193077</v>
       </c>
       <c r="G17">
-        <v>4.736749150935027</v>
+        <v>2.761267722095456</v>
       </c>
       <c r="I17">
-        <v>12.72828967649847</v>
+        <v>7.419902199013056</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>2.420339755939208</v>
+        <v>1.410926741446733</v>
       </c>
       <c r="C18">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D18">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="E18">
-        <v>0.994607348271671</v>
+        <v>0.5798021131010053</v>
       </c>
       <c r="F18">
-        <v>0.9083473632357124</v>
+        <v>0.529517222599423</v>
       </c>
       <c r="G18">
-        <v>4.736749150935027</v>
+        <v>2.761267722095456</v>
       </c>
       <c r="I18">
-        <v>11.76555563656585</v>
+        <v>6.858680495114358</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>1.914597120369823</v>
+        <v>1.116106228308609</v>
       </c>
       <c r="C19">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D19">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="F19">
-        <v>0.9083473632357124</v>
+        <v>0.529517222599423</v>
       </c>
       <c r="G19">
-        <v>5.10111447023772</v>
+        <v>2.973672931487415</v>
       </c>
       <c r="I19">
-        <v>8.850035146641996</v>
+        <v>5.15909025602696</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>1.697850276554371</v>
+        <v>0.9897545798208428</v>
       </c>
       <c r="C20">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="D20">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="E20">
-        <v>0.3315357827572237</v>
+        <v>0.1932673710336684</v>
       </c>
       <c r="F20">
-        <v>1.544190517500711</v>
+        <v>0.9001792784190192</v>
       </c>
       <c r="G20">
-        <v>6.922941066751192</v>
+        <v>4.035698978447206</v>
       </c>
       <c r="I20">
-        <v>12.10379763343593</v>
+        <v>7.05585722507273</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>3.504073975016468</v>
+        <v>2.042684983885568</v>
       </c>
       <c r="C21">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="D21">
-        <v>1.961643245953828</v>
+        <v>1.143531566633549</v>
       </c>
       <c r="E21">
-        <v>0.994607348271671</v>
+        <v>0.5798021131010053</v>
       </c>
       <c r="F21">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="G21">
-        <v>15.66770873001585</v>
+        <v>9.133424003854202</v>
       </c>
       <c r="I21">
-        <v>23.88090690633818</v>
+        <v>13.9212728632297</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>9.211740862156695</v>
+        <v>5.369945060730104</v>
       </c>
       <c r="C22">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="D22">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="E22">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F22">
-        <v>2.361703144412852</v>
+        <v>1.3767447787585</v>
       </c>
       <c r="G22">
-        <v>29.51359086351825</v>
+        <v>17.20482196074862</v>
       </c>
       <c r="I22">
-        <v>50.90918556065212</v>
+        <v>29.67729266791503</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>21.16894174597575</v>
+        <v>12.34034433563859</v>
       </c>
       <c r="C23">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D23">
-        <v>5.557989196869178</v>
+        <v>3.240006105461723</v>
       </c>
       <c r="E23">
-        <v>11.27221661374561</v>
+        <v>6.571090615144726</v>
       </c>
       <c r="F23">
-        <v>6.358431542649986</v>
+        <v>3.706620558195961</v>
       </c>
       <c r="G23">
-        <v>26.96303362839938</v>
+        <v>15.71798549500491</v>
       </c>
       <c r="H23">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I23">
-        <v>72.63257575548133</v>
+        <v>42.34085036288524</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>27.38235126868536</v>
+        <v>15.96242492562124</v>
       </c>
       <c r="C24">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D24">
-        <v>5.557989196869178</v>
+        <v>3.240006105461723</v>
       </c>
       <c r="E24">
-        <v>6.962251437901697</v>
+        <v>4.058614791707037</v>
       </c>
       <c r="F24">
-        <v>5.722588388384987</v>
+        <v>3.335958502376365</v>
       </c>
       <c r="G24">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="H24">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I24">
-        <v>68.89890175314538</v>
+        <v>40.16432102198863</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>32.18690630659457</v>
+        <v>18.76321980043341</v>
       </c>
       <c r="C25">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="D25">
-        <v>9.481275688776835</v>
+        <v>5.527069238728821</v>
       </c>
       <c r="E25">
-        <v>6.299179872387251</v>
+        <v>3.672080049639699</v>
       </c>
       <c r="F25">
-        <v>4.814241025149275</v>
+        <v>2.806441279776942</v>
       </c>
       <c r="G25">
-        <v>17.48953532652932</v>
+        <v>10.19545005081399</v>
       </c>
       <c r="H25">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I25">
-        <v>71.83972565999507</v>
+        <v>41.87866178009014</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>26.22636810166963</v>
+        <v>15.28854946701982</v>
       </c>
       <c r="C26">
-        <v>1.597428404817162</v>
+        <v>0.9312140778469037</v>
       </c>
       <c r="D26">
-        <v>8.500454065799921</v>
+        <v>4.955303455412047</v>
       </c>
       <c r="E26">
-        <v>6.299179872387251</v>
+        <v>3.672080049639699</v>
       </c>
       <c r="F26">
-        <v>7.266778905885699</v>
+        <v>4.236137780795384</v>
       </c>
       <c r="G26">
-        <v>26.23430298979399</v>
+        <v>15.293175076221</v>
       </c>
       <c r="H26">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="I26">
-        <v>77.37213524841485</v>
+        <v>45.10375636186665</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>18.96534883385201</v>
+        <v>11.05576924267962</v>
       </c>
       <c r="C27">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="D27">
-        <v>7.846572983815314</v>
+        <v>4.574126266534197</v>
       </c>
       <c r="E27">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="F27">
-        <v>8.81096942338641</v>
+        <v>5.136317059214403</v>
       </c>
       <c r="G27">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="H27">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I27">
-        <v>62.07302324618131</v>
+        <v>36.18520424893669</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>20.48257674056017</v>
+        <v>11.94023078209399</v>
       </c>
       <c r="C28">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D28">
-        <v>8.827394606792224</v>
+        <v>5.145892049850972</v>
       </c>
       <c r="E28">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="F28">
-        <v>7.266778905885699</v>
+        <v>4.236137780795384</v>
       </c>
       <c r="G28">
-        <v>18.94699660374011</v>
+        <v>11.04507088838183</v>
       </c>
       <c r="H28">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I28">
-        <v>59.71621145566669</v>
+        <v>34.81131086407856</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>22.61392070474545</v>
+        <v>13.18268865889037</v>
       </c>
       <c r="C29">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D29">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="E29">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F29">
-        <v>7.448448378532841</v>
+        <v>4.342041225315268</v>
       </c>
       <c r="G29">
-        <v>13.11715149489699</v>
+        <v>7.646587538110498</v>
       </c>
       <c r="H29">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I29">
-        <v>54.51331284718317</v>
+        <v>31.77830330316414</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>24.85363809083844</v>
+        <v>14.48832235993063</v>
       </c>
       <c r="C30">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="D30">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="E30">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F30">
-        <v>5.904257861032131</v>
+        <v>3.44186194689625</v>
       </c>
       <c r="G30">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="H30">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I30">
-        <v>58.59487807982798</v>
+        <v>34.15763435351212</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>23.2641612361918</v>
+        <v>13.56174360435366</v>
       </c>
       <c r="C31">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D31">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="E31">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="F31">
-        <v>8.901804159709979</v>
+        <v>5.189268781474344</v>
       </c>
       <c r="G31">
-        <v>14.57461277210777</v>
+        <v>8.496208375678327</v>
       </c>
       <c r="H31">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I31">
-        <v>59.35609065262834</v>
+        <v>34.60137997734612</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>26.33474152357735</v>
+        <v>15.3517252912637</v>
       </c>
       <c r="C32">
-        <v>1.297910578913944</v>
+        <v>0.7566114382506091</v>
       </c>
       <c r="D32">
-        <v>6.21187027885379</v>
+        <v>3.621183294339573</v>
       </c>
       <c r="E32">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="F32">
-        <v>6.267596806326416</v>
+        <v>3.653668835936018</v>
       </c>
       <c r="G32">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="H32">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I32">
-        <v>58.60244439246869</v>
+        <v>34.16204510320655</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>28.57445890967037</v>
+        <v>16.65735899230396</v>
       </c>
       <c r="C33">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D33">
-        <v>11.44291893473067</v>
+        <v>6.670600805362371</v>
       </c>
       <c r="E33">
-        <v>6.299179872387251</v>
+        <v>3.672080049639699</v>
       </c>
       <c r="F33">
-        <v>7.630117851179984</v>
+        <v>4.447944669835152</v>
       </c>
       <c r="G33">
-        <v>9.109132982567358</v>
+        <v>5.310130234798956</v>
       </c>
       <c r="H33">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I33">
-        <v>64.74568197298792</v>
+        <v>37.74321925867203</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>34.17375237490288</v>
+        <v>19.92144324490462</v>
       </c>
       <c r="C34">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D34">
-        <v>10.46209731175375</v>
+        <v>6.098835022045596</v>
       </c>
       <c r="E34">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="F34">
-        <v>5.17757997044356</v>
+        <v>3.01824816881671</v>
       </c>
       <c r="G34">
-        <v>5.829845108843107</v>
+        <v>3.398483350271333</v>
       </c>
       <c r="H34">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I34">
-        <v>64.21352585892276</v>
+        <v>37.4330011208604</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>35.97997607336496</v>
+        <v>20.97437364896935</v>
       </c>
       <c r="C35">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D35">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="E35">
-        <v>8.95146613444504</v>
+        <v>5.218219017909045</v>
       </c>
       <c r="F35">
-        <v>2.725042089707138</v>
+        <v>1.588551667798269</v>
       </c>
       <c r="G35">
-        <v>8.016037024659274</v>
+        <v>4.67291460662308</v>
       </c>
       <c r="I35">
-        <v>63.89102869210694</v>
+        <v>37.24500277245303</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>33.59576079139498</v>
+        <v>19.5845055156039</v>
       </c>
       <c r="C36">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="D36">
-        <v>7.846572983815314</v>
+        <v>4.574126266534197</v>
       </c>
       <c r="E36">
-        <v>6.630715655144473</v>
+        <v>3.865347420673368</v>
       </c>
       <c r="F36">
-        <v>3.815058925589992</v>
+        <v>2.223972334917576</v>
       </c>
       <c r="G36">
-        <v>12.02405553698891</v>
+        <v>7.009371909934623</v>
       </c>
       <c r="I36">
-        <v>64.41136026943903</v>
+        <v>37.54832784699082</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>20.80769700628334</v>
+        <v>12.12975825482564</v>
       </c>
       <c r="C37">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D37">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="E37">
-        <v>7.956858786173368</v>
+        <v>4.638416904808042</v>
       </c>
       <c r="F37">
-        <v>1.816694726471425</v>
+        <v>1.059034445198846</v>
       </c>
       <c r="G37">
-        <v>12.3884208562916</v>
+        <v>7.22177711932658</v>
       </c>
       <c r="I37">
-        <v>51.26059530536224</v>
+        <v>29.8821454803352</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>17.84549014080551</v>
+        <v>10.40295239215949</v>
       </c>
       <c r="C38">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D38">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="E38">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="F38">
-        <v>2.452537880736423</v>
+        <v>1.429696501018442</v>
       </c>
       <c r="G38">
-        <v>12.02405553698891</v>
+        <v>7.009371909934623</v>
       </c>
       <c r="I38">
-        <v>42.42092460167422</v>
+        <v>24.72909713213877</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>12.39069457144998</v>
+        <v>7.223102571884017</v>
       </c>
       <c r="C39">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D39">
-        <v>3.59634595091535</v>
+        <v>2.096474538828173</v>
       </c>
       <c r="E39">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="F39">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="G39">
-        <v>9.837863621172746</v>
+        <v>5.734940653582871</v>
       </c>
       <c r="H39">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I39">
-        <v>33.16420679878289</v>
+        <v>19.33293295556956</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>7.730637429417771</v>
+        <v>4.506542129397026</v>
       </c>
       <c r="C40">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D40">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="E40">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="F40">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="G40">
-        <v>4.736749150935027</v>
+        <v>2.761267722095456</v>
       </c>
       <c r="I40">
-        <v>18.3569737461858</v>
+        <v>10.70111957917188</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>4.15431450646282</v>
+        <v>2.421739929348869</v>
       </c>
       <c r="C41">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D41">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="E41">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="F41">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="G41">
-        <v>5.465479789540416</v>
+        <v>3.186078140879373</v>
       </c>
       <c r="I41">
-        <v>15.43634100915073</v>
+        <v>8.9985491774274</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>2.420339755939208</v>
+        <v>1.410926741446733</v>
       </c>
       <c r="C42">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D42">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E42">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="F42">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="G42">
-        <v>3.643653193026943</v>
+        <v>2.124052093919582</v>
       </c>
       <c r="I42">
-        <v>10.53219295023411</v>
+        <v>6.13969697564035</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>1.842348172431338</v>
+        <v>1.07398901214602</v>
       </c>
       <c r="C43">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D43">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="F43">
-        <v>0.9083473632357124</v>
+        <v>0.529517222599423</v>
       </c>
       <c r="G43">
-        <v>6.558575747448496</v>
+        <v>3.823293769055249</v>
       </c>
       <c r="I43">
-        <v>10.56218801690659</v>
+        <v>6.157182471871131</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>1.408854484800435</v>
+        <v>0.8212857151704863</v>
       </c>
       <c r="C44">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="D44">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="E44">
-        <v>0.3315357827572237</v>
+        <v>0.1932673710336684</v>
       </c>
       <c r="F44">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="G44">
-        <v>8.380402343961968</v>
+        <v>4.88531981601504</v>
       </c>
       <c r="I44">
-        <v>12.52754730058459</v>
+        <v>7.302880286852415</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>4.262687928370547</v>
+        <v>2.484915753592752</v>
       </c>
       <c r="C45">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="D45">
-        <v>2.615524327938437</v>
+        <v>1.524708755511399</v>
       </c>
       <c r="E45">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="F45">
-        <v>1.725859990147854</v>
+        <v>1.006082722938904</v>
       </c>
       <c r="G45">
-        <v>13.84588213350238</v>
+        <v>8.071397956894412</v>
       </c>
       <c r="I45">
-        <v>24.6068296702507</v>
+        <v>14.34444644343296</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>7.550015059571562</v>
+        <v>4.401249088990554</v>
       </c>
       <c r="D46">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="E46">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="F46">
-        <v>2.997546298677851</v>
+        <v>1.747406834578096</v>
       </c>
       <c r="G46">
-        <v>30.24232150212362</v>
+        <v>17.62963237953254</v>
       </c>
       <c r="H46">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I46">
-        <v>51.84181860533205</v>
+        <v>30.22096712496877</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>22.28880043902226</v>
+        <v>12.99316118615872</v>
       </c>
       <c r="C47">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D47">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="E47">
-        <v>11.27221661374561</v>
+        <v>6.571090615144726</v>
       </c>
       <c r="F47">
-        <v>6.449266278973558</v>
+        <v>3.759572280455904</v>
       </c>
       <c r="G47">
-        <v>30.97105214072901</v>
+        <v>18.05444279831645</v>
       </c>
       <c r="H47">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I47">
-        <v>79.65614580571952</v>
+        <v>46.4352105782179</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>26.6237373153313</v>
+        <v>15.52019415591405</v>
       </c>
       <c r="C48">
-        <v>1.497589129516089</v>
+        <v>0.873013197981472</v>
       </c>
       <c r="D48">
-        <v>4.90410811488457</v>
+        <v>2.858828916583872</v>
       </c>
       <c r="E48">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="F48">
-        <v>5.904257861032131</v>
+        <v>3.44186194689625</v>
       </c>
       <c r="G48">
-        <v>22.95501511606974</v>
+        <v>13.38152819169337</v>
       </c>
       <c r="H48">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I48">
-        <v>70.06965397753648</v>
+        <v>40.84680603961815</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>33.84863210917968</v>
+        <v>19.73191577217297</v>
       </c>
       <c r="C49">
-        <v>0.3993571012042905</v>
+        <v>0.2328035194617259</v>
       </c>
       <c r="D49">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="E49">
-        <v>6.630715655144473</v>
+        <v>3.865347420673368</v>
       </c>
       <c r="F49">
-        <v>5.359249443090702</v>
+        <v>3.124151613336596</v>
       </c>
       <c r="G49">
-        <v>20.76882320025357</v>
+        <v>12.10709693534162</v>
       </c>
       <c r="H49">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I49">
-        <v>76.339344500666</v>
+        <v>44.50169539883785</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>12.80363371342707</v>
+        <v>21.9636801732991</v>
       </c>
       <c r="C2">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="D2">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="E2">
-        <v>3.092277936538694</v>
+        <v>5.30457252411558</v>
       </c>
       <c r="F2">
-        <v>3.388910224636307</v>
+        <v>5.813423124708558</v>
       </c>
       <c r="G2">
-        <v>12.53190735412553</v>
+        <v>21.49755383885896</v>
       </c>
       <c r="H2">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="I2">
-        <v>37.53928481326261</v>
+        <v>64.39584761849572</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>9.244728947688293</v>
+        <v>15.8586440724972</v>
       </c>
       <c r="C3">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D3">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="E3">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="F3">
-        <v>4.077282614015557</v>
+        <v>6.994274696914984</v>
       </c>
       <c r="G3">
-        <v>10.40785526020595</v>
+        <v>17.85390064583202</v>
       </c>
       <c r="H3">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="I3">
-        <v>29.75907993957733</v>
+        <v>51.04948553464727</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>10.95047620227315</v>
+        <v>18.7847264640058</v>
       </c>
       <c r="C4">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D4">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="E4">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F4">
-        <v>3.865475724975788</v>
+        <v>6.6309357516207</v>
       </c>
       <c r="G4">
-        <v>10.19545005081399</v>
+        <v>17.48953532652932</v>
       </c>
       <c r="H4">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I4">
-        <v>31.96862795109334</v>
+        <v>54.83980060759362</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>13.77232968516661</v>
+        <v>23.62540597588422</v>
       </c>
       <c r="C5">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D5">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="E5">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F5">
-        <v>3.706620558195961</v>
+        <v>6.358431542649986</v>
       </c>
       <c r="G5">
-        <v>9.558234422638119</v>
+        <v>16.39643936862124</v>
       </c>
       <c r="H5">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I5">
-        <v>33.72963520988412</v>
+        <v>57.8606774212108</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>14.04609159022344</v>
+        <v>24.09502413748438</v>
       </c>
       <c r="C6">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D6">
-        <v>4.574126266534197</v>
+        <v>7.846572983815314</v>
       </c>
       <c r="E6">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="F6">
-        <v>4.87155844791469</v>
+        <v>8.356795741768554</v>
       </c>
       <c r="G6">
-        <v>10.62026046959791</v>
+        <v>18.21826596513472</v>
       </c>
       <c r="H6">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I6">
-        <v>37.27512077696971</v>
+        <v>63.9426938860252</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>12.55093041645153</v>
+        <v>21.53018648566819</v>
       </c>
       <c r="C7">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D7">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="E7">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="F7">
-        <v>5.348123948254172</v>
+        <v>9.174308368680693</v>
       </c>
       <c r="G7">
-        <v>9.558234422638119</v>
+        <v>16.39643936862124</v>
       </c>
       <c r="H7">
-        <v>1.662391896986985</v>
+        <v>2.851709504139907</v>
       </c>
       <c r="I7">
-        <v>37.42888663779235</v>
+        <v>64.20646776961721</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>13.8355055094105</v>
+        <v>23.73377939779194</v>
       </c>
       <c r="C8">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D8">
-        <v>7.432955183118072</v>
+        <v>12.75068109869988</v>
       </c>
       <c r="E8">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="F8">
-        <v>3.706620558195961</v>
+        <v>6.358431542649986</v>
       </c>
       <c r="G8">
-        <v>7.858992747502455</v>
+        <v>13.48151681419969</v>
       </c>
       <c r="H8">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="I8">
-        <v>36.50828631791339</v>
+        <v>62.62724647620779</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>15.18325642661334</v>
+        <v>26.04574573182343</v>
       </c>
       <c r="C9">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D9">
-        <v>6.861189399801296</v>
+        <v>11.76985947572296</v>
       </c>
       <c r="E9">
-        <v>4.058614791707037</v>
+        <v>6.962251437901697</v>
       </c>
       <c r="F9">
-        <v>4.342041225315268</v>
+        <v>7.448448378532841</v>
       </c>
       <c r="G9">
-        <v>6.159751072366789</v>
+        <v>10.56659425977813</v>
       </c>
       <c r="H9">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I9">
-        <v>37.47355566280476</v>
+        <v>64.28309415560922</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>21.62719049948948</v>
+        <v>37.09983476641145</v>
       </c>
       <c r="C10">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D10">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="E10">
-        <v>3.478812678606031</v>
+        <v>5.967644089630027</v>
       </c>
       <c r="F10">
-        <v>3.653668835936018</v>
+        <v>6.267596806326416</v>
       </c>
       <c r="G10">
-        <v>4.88531981601504</v>
+        <v>8.380402343961968</v>
       </c>
       <c r="H10">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I10">
-        <v>40.30205555624995</v>
+        <v>69.13517508984364</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>21.56401467524557</v>
+        <v>36.99146134450371</v>
       </c>
       <c r="C11">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D11">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="E11">
-        <v>5.218219017909045</v>
+        <v>8.95146613444504</v>
       </c>
       <c r="F11">
-        <v>2.118068890397692</v>
+        <v>3.63338945294285</v>
       </c>
       <c r="G11">
-        <v>5.097725025406997</v>
+        <v>8.744767663264662</v>
       </c>
       <c r="I11">
-        <v>39.22834950885588</v>
+        <v>67.29331232237247</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>16.76265203271043</v>
+        <v>28.75508127951656</v>
       </c>
       <c r="C12">
-        <v>0.873013197981472</v>
+        <v>1.497589129516089</v>
       </c>
       <c r="D12">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="E12">
-        <v>4.445149533774374</v>
+        <v>7.625323003416145</v>
       </c>
       <c r="F12">
-        <v>2.488730946217288</v>
+        <v>4.269232607207848</v>
       </c>
       <c r="G12">
-        <v>4.88531981601504</v>
+        <v>8.380402343961968</v>
       </c>
       <c r="I12">
-        <v>32.88546022659925</v>
+        <v>56.41255810148009</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>13.4353919558659</v>
+        <v>23.04741439237634</v>
       </c>
       <c r="C13">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D13">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="E13">
-        <v>3.092277936538694</v>
+        <v>5.30457252411558</v>
       </c>
       <c r="F13">
-        <v>1.482648223278385</v>
+        <v>2.543372617059995</v>
       </c>
       <c r="G13">
-        <v>8.708613585070287</v>
+        <v>14.93897809141046</v>
       </c>
       <c r="H13">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I13">
-        <v>31.65598995049104</v>
+        <v>54.30349339911361</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>10.04495605477748</v>
+        <v>17.23137408332839</v>
       </c>
       <c r="C14">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D14">
-        <v>2.287063133267099</v>
+        <v>3.923286491907657</v>
       </c>
       <c r="E14">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F14">
-        <v>1.111986167458788</v>
+        <v>1.907529462794996</v>
       </c>
       <c r="G14">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="I14">
-        <v>24.57003752819208</v>
+        <v>42.14806969596781</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>6.61240293752648</v>
+        <v>11.34308482634196</v>
       </c>
       <c r="C15">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D15">
-        <v>2.287063133267099</v>
+        <v>3.923286491907657</v>
       </c>
       <c r="E15">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F15">
-        <v>1.323793056498558</v>
+        <v>2.270868408089281</v>
       </c>
       <c r="G15">
-        <v>5.522535444190913</v>
+        <v>9.473498301870054</v>
       </c>
       <c r="I15">
-        <v>18.12541058930581</v>
+        <v>31.09279210133577</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>3.30620146876324</v>
+        <v>5.671542413170981</v>
       </c>
       <c r="C16">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D16">
-        <v>1.334120161072474</v>
+        <v>2.288583786946133</v>
       </c>
       <c r="E16">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="F16">
-        <v>0.5824689448593653</v>
+        <v>0.9991820995592837</v>
       </c>
       <c r="G16">
-        <v>4.248104187839163</v>
+        <v>7.287306386053887</v>
       </c>
       <c r="I16">
-        <v>11.34757427855881</v>
+        <v>19.4659186427405</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>2.400681321267573</v>
+        <v>4.118190032493581</v>
       </c>
       <c r="C17">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D17">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="E17">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="F17">
-        <v>0.6354206671193077</v>
+        <v>1.090016835882855</v>
       </c>
       <c r="G17">
-        <v>2.761267722095456</v>
+        <v>4.736749150935027</v>
       </c>
       <c r="I17">
-        <v>7.419902199013056</v>
+        <v>12.72828967649847</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>1.410926741446733</v>
+        <v>2.420339755939208</v>
       </c>
       <c r="C18">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D18">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="E18">
-        <v>0.5798021131010053</v>
+        <v>0.994607348271671</v>
       </c>
       <c r="F18">
-        <v>0.529517222599423</v>
+        <v>0.9083473632357124</v>
       </c>
       <c r="G18">
-        <v>2.761267722095456</v>
+        <v>4.736749150935027</v>
       </c>
       <c r="I18">
-        <v>6.858680495114358</v>
+        <v>11.76555563656585</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>1.116106228308609</v>
+        <v>1.914597120369823</v>
       </c>
       <c r="C19">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D19">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="F19">
-        <v>0.529517222599423</v>
+        <v>0.9083473632357124</v>
       </c>
       <c r="G19">
-        <v>2.973672931487415</v>
+        <v>5.10111447023772</v>
       </c>
       <c r="I19">
-        <v>5.15909025602696</v>
+        <v>8.850035146641996</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.9897545798208428</v>
+        <v>1.697850276554371</v>
       </c>
       <c r="C20">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="D20">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="E20">
-        <v>0.1932673710336684</v>
+        <v>0.3315357827572237</v>
       </c>
       <c r="F20">
-        <v>0.9001792784190192</v>
+        <v>1.544190517500711</v>
       </c>
       <c r="G20">
-        <v>4.035698978447206</v>
+        <v>6.922941066751192</v>
       </c>
       <c r="I20">
-        <v>7.05585722507273</v>
+        <v>12.10379763343593</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>2.042684983885568</v>
+        <v>3.504073975016468</v>
       </c>
       <c r="C21">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="D21">
-        <v>1.143531566633549</v>
+        <v>1.961643245953828</v>
       </c>
       <c r="E21">
-        <v>0.5798021131010053</v>
+        <v>0.994607348271671</v>
       </c>
       <c r="F21">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="G21">
-        <v>9.133424003854202</v>
+        <v>15.66770873001585</v>
       </c>
       <c r="I21">
-        <v>13.9212728632297</v>
+        <v>23.88090690633818</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>5.369945060730104</v>
+        <v>9.211740862156695</v>
       </c>
       <c r="C22">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="D22">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="E22">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F22">
-        <v>1.3767447787585</v>
+        <v>2.361703144412852</v>
       </c>
       <c r="G22">
-        <v>17.20482196074862</v>
+        <v>29.51359086351825</v>
       </c>
       <c r="I22">
-        <v>29.67729266791503</v>
+        <v>50.90918556065212</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>12.34034433563859</v>
+        <v>21.16894174597575</v>
       </c>
       <c r="C23">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D23">
-        <v>3.240006105461723</v>
+        <v>5.557989196869178</v>
       </c>
       <c r="E23">
-        <v>6.571090615144726</v>
+        <v>11.27221661374561</v>
       </c>
       <c r="F23">
-        <v>3.706620558195961</v>
+        <v>6.358431542649986</v>
       </c>
       <c r="G23">
-        <v>15.71798549500491</v>
+        <v>26.96303362839938</v>
       </c>
       <c r="H23">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I23">
-        <v>42.34085036288524</v>
+        <v>72.63257575548133</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>15.96242492562124</v>
+        <v>27.38235126868536</v>
       </c>
       <c r="C24">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D24">
-        <v>3.240006105461723</v>
+        <v>5.557989196869178</v>
       </c>
       <c r="E24">
-        <v>4.058614791707037</v>
+        <v>6.962251437901697</v>
       </c>
       <c r="F24">
-        <v>3.335958502376365</v>
+        <v>5.722588388384987</v>
       </c>
       <c r="G24">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="H24">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I24">
-        <v>40.16432102198863</v>
+        <v>68.89890175314538</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>18.76321980043341</v>
+        <v>32.18690630659457</v>
       </c>
       <c r="C25">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="D25">
-        <v>5.527069238728821</v>
+        <v>9.481275688776835</v>
       </c>
       <c r="E25">
-        <v>3.672080049639699</v>
+        <v>6.299179872387251</v>
       </c>
       <c r="F25">
-        <v>2.806441279776942</v>
+        <v>4.814241025149275</v>
       </c>
       <c r="G25">
-        <v>10.19545005081399</v>
+        <v>17.48953532652932</v>
       </c>
       <c r="H25">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I25">
-        <v>41.87866178009014</v>
+        <v>71.83972565999507</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>15.28854946701982</v>
+        <v>26.22636810166963</v>
       </c>
       <c r="C26">
-        <v>0.9312140778469037</v>
+        <v>1.597428404817162</v>
       </c>
       <c r="D26">
-        <v>4.955303455412047</v>
+        <v>8.500454065799921</v>
       </c>
       <c r="E26">
-        <v>3.672080049639699</v>
+        <v>6.299179872387251</v>
       </c>
       <c r="F26">
-        <v>4.236137780795384</v>
+        <v>7.266778905885699</v>
       </c>
       <c r="G26">
-        <v>15.293175076221</v>
+        <v>26.23430298979399</v>
       </c>
       <c r="H26">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="I26">
-        <v>45.10375636186665</v>
+        <v>77.37213524841485</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>11.05576924267962</v>
+        <v>18.96534883385201</v>
       </c>
       <c r="C27">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="D27">
-        <v>4.574126266534197</v>
+        <v>7.846572983815314</v>
       </c>
       <c r="E27">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="F27">
-        <v>5.136317059214403</v>
+        <v>8.81096942338641</v>
       </c>
       <c r="G27">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="H27">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I27">
-        <v>36.18520424893669</v>
+        <v>62.07302324618131</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>11.94023078209399</v>
+        <v>20.48257674056017</v>
       </c>
       <c r="C28">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D28">
-        <v>5.145892049850972</v>
+        <v>8.827394606792224</v>
       </c>
       <c r="E28">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="F28">
-        <v>4.236137780795384</v>
+        <v>7.266778905885699</v>
       </c>
       <c r="G28">
-        <v>11.04507088838183</v>
+        <v>18.94699660374011</v>
       </c>
       <c r="H28">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I28">
-        <v>34.81131086407856</v>
+        <v>59.71621145566669</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>13.18268865889037</v>
+        <v>22.61392070474545</v>
       </c>
       <c r="C29">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D29">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="E29">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F29">
-        <v>4.342041225315268</v>
+        <v>7.448448378532841</v>
       </c>
       <c r="G29">
-        <v>7.646587538110498</v>
+        <v>13.11715149489699</v>
       </c>
       <c r="H29">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I29">
-        <v>31.77830330316414</v>
+        <v>54.51331284718317</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>14.48832235993063</v>
+        <v>24.85363809083844</v>
       </c>
       <c r="C30">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="D30">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="E30">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F30">
-        <v>3.44186194689625</v>
+        <v>5.904257861032131</v>
       </c>
       <c r="G30">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="H30">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I30">
-        <v>34.15763435351212</v>
+        <v>58.59487807982798</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>13.56174360435366</v>
+        <v>23.2641612361918</v>
       </c>
       <c r="C31">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D31">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="E31">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="F31">
-        <v>5.189268781474344</v>
+        <v>8.901804159709979</v>
       </c>
       <c r="G31">
-        <v>8.496208375678327</v>
+        <v>14.57461277210777</v>
       </c>
       <c r="H31">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I31">
-        <v>34.60137997734612</v>
+        <v>59.35609065262834</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>15.3517252912637</v>
+        <v>26.33474152357735</v>
       </c>
       <c r="C32">
-        <v>0.7566114382506091</v>
+        <v>1.297910578913944</v>
       </c>
       <c r="D32">
-        <v>3.621183294339573</v>
+        <v>6.21187027885379</v>
       </c>
       <c r="E32">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="F32">
-        <v>3.653668835936018</v>
+        <v>6.267596806326416</v>
       </c>
       <c r="G32">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="H32">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I32">
-        <v>34.16204510320655</v>
+        <v>58.60244439246869</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>16.65735899230396</v>
+        <v>28.57445890967037</v>
       </c>
       <c r="C33">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D33">
-        <v>6.670600805362371</v>
+        <v>11.44291893473067</v>
       </c>
       <c r="E33">
-        <v>3.672080049639699</v>
+        <v>6.299179872387251</v>
       </c>
       <c r="F33">
-        <v>4.447944669835152</v>
+        <v>7.630117851179984</v>
       </c>
       <c r="G33">
-        <v>5.310130234798956</v>
+        <v>9.109132982567358</v>
       </c>
       <c r="H33">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I33">
-        <v>37.74321925867203</v>
+        <v>64.74568197298792</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>19.92144324490462</v>
+        <v>34.17375237490288</v>
       </c>
       <c r="C34">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D34">
-        <v>6.098835022045596</v>
+        <v>10.46209731175375</v>
       </c>
       <c r="E34">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="F34">
-        <v>3.01824816881671</v>
+        <v>5.17757997044356</v>
       </c>
       <c r="G34">
-        <v>3.398483350271333</v>
+        <v>5.829845108843107</v>
       </c>
       <c r="H34">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I34">
-        <v>37.4330011208604</v>
+        <v>64.21352585892276</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>20.97437364896935</v>
+        <v>35.97997607336496</v>
       </c>
       <c r="C35">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D35">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="E35">
-        <v>5.218219017909045</v>
+        <v>8.95146613444504</v>
       </c>
       <c r="F35">
-        <v>1.588551667798269</v>
+        <v>2.725042089707138</v>
       </c>
       <c r="G35">
-        <v>4.67291460662308</v>
+        <v>8.016037024659274</v>
       </c>
       <c r="I35">
-        <v>37.24500277245303</v>
+        <v>63.89102869210694</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>19.5845055156039</v>
+        <v>33.59576079139498</v>
       </c>
       <c r="C36">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="D36">
-        <v>4.574126266534197</v>
+        <v>7.846572983815314</v>
       </c>
       <c r="E36">
-        <v>3.865347420673368</v>
+        <v>6.630715655144473</v>
       </c>
       <c r="F36">
-        <v>2.223972334917576</v>
+        <v>3.815058925589992</v>
       </c>
       <c r="G36">
-        <v>7.009371909934623</v>
+        <v>12.02405553698891</v>
       </c>
       <c r="I36">
-        <v>37.54832784699082</v>
+        <v>64.41136026943903</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>12.12975825482564</v>
+        <v>20.80769700628334</v>
       </c>
       <c r="C37">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D37">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="E37">
-        <v>4.638416904808042</v>
+        <v>7.956858786173368</v>
       </c>
       <c r="F37">
-        <v>1.059034445198846</v>
+        <v>1.816694726471425</v>
       </c>
       <c r="G37">
-        <v>7.22177711932658</v>
+        <v>12.3884208562916</v>
       </c>
       <c r="I37">
-        <v>29.8821454803352</v>
+        <v>51.26059530536224</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>10.40295239215949</v>
+        <v>17.84549014080551</v>
       </c>
       <c r="C38">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D38">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="E38">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="F38">
-        <v>1.429696501018442</v>
+        <v>2.452537880736423</v>
       </c>
       <c r="G38">
-        <v>7.009371909934623</v>
+        <v>12.02405553698891</v>
       </c>
       <c r="I38">
-        <v>24.72909713213877</v>
+        <v>42.42092460167422</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>7.223102571884017</v>
+        <v>12.39069457144998</v>
       </c>
       <c r="C39">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D39">
-        <v>2.096474538828173</v>
+        <v>3.59634595091535</v>
       </c>
       <c r="E39">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="F39">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="G39">
-        <v>5.734940653582871</v>
+        <v>9.837863621172746</v>
       </c>
       <c r="H39">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I39">
-        <v>19.33293295556956</v>
+        <v>33.16420679878289</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>4.506542129397026</v>
+        <v>7.730637429417771</v>
       </c>
       <c r="C40">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D40">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="E40">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="F40">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="G40">
-        <v>2.761267722095456</v>
+        <v>4.736749150935027</v>
       </c>
       <c r="I40">
-        <v>10.70111957917188</v>
+        <v>18.3569737461858</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>2.421739929348869</v>
+        <v>4.15431450646282</v>
       </c>
       <c r="C41">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D41">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="E41">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="F41">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="G41">
-        <v>3.186078140879373</v>
+        <v>5.465479789540416</v>
       </c>
       <c r="I41">
-        <v>8.9985491774274</v>
+        <v>15.43634100915073</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>1.410926741446733</v>
+        <v>2.420339755939208</v>
       </c>
       <c r="C42">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D42">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E42">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="F42">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="G42">
-        <v>2.124052093919582</v>
+        <v>3.643653193026943</v>
       </c>
       <c r="I42">
-        <v>6.13969697564035</v>
+        <v>10.53219295023411</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>1.07398901214602</v>
+        <v>1.842348172431338</v>
       </c>
       <c r="C43">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D43">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="F43">
-        <v>0.529517222599423</v>
+        <v>0.9083473632357124</v>
       </c>
       <c r="G43">
-        <v>3.823293769055249</v>
+        <v>6.558575747448496</v>
       </c>
       <c r="I43">
-        <v>6.157182471871131</v>
+        <v>10.56218801690659</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.8212857151704863</v>
+        <v>1.408854484800435</v>
       </c>
       <c r="C44">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="D44">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="E44">
-        <v>0.1932673710336684</v>
+        <v>0.3315357827572237</v>
       </c>
       <c r="F44">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="G44">
-        <v>4.88531981601504</v>
+        <v>8.380402343961968</v>
       </c>
       <c r="I44">
-        <v>7.302880286852415</v>
+        <v>12.52754730058459</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>2.484915753592752</v>
+        <v>4.262687928370547</v>
       </c>
       <c r="C45">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="D45">
-        <v>1.524708755511399</v>
+        <v>2.615524327938437</v>
       </c>
       <c r="E45">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="F45">
-        <v>1.006082722938904</v>
+        <v>1.725859990147854</v>
       </c>
       <c r="G45">
-        <v>8.071397956894412</v>
+        <v>13.84588213350238</v>
       </c>
       <c r="I45">
-        <v>14.34444644343296</v>
+        <v>24.6068296702507</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>4.401249088990554</v>
+        <v>7.550015059571562</v>
       </c>
       <c r="D46">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="E46">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="F46">
-        <v>1.747406834578096</v>
+        <v>2.997546298677851</v>
       </c>
       <c r="G46">
-        <v>17.62963237953254</v>
+        <v>30.24232150212362</v>
       </c>
       <c r="H46">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I46">
-        <v>30.22096712496877</v>
+        <v>51.84181860533205</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>12.99316118615872</v>
+        <v>22.28880043902226</v>
       </c>
       <c r="C47">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D47">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="E47">
-        <v>6.571090615144726</v>
+        <v>11.27221661374561</v>
       </c>
       <c r="F47">
-        <v>3.759572280455904</v>
+        <v>6.449266278973558</v>
       </c>
       <c r="G47">
-        <v>18.05444279831645</v>
+        <v>30.97105214072901</v>
       </c>
       <c r="H47">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I47">
-        <v>46.4352105782179</v>
+        <v>79.65614580571952</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>15.52019415591405</v>
+        <v>26.6237373153313</v>
       </c>
       <c r="C48">
-        <v>0.873013197981472</v>
+        <v>1.497589129516089</v>
       </c>
       <c r="D48">
-        <v>2.858828916583872</v>
+        <v>4.90410811488457</v>
       </c>
       <c r="E48">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="F48">
-        <v>3.44186194689625</v>
+        <v>5.904257861032131</v>
       </c>
       <c r="G48">
-        <v>13.38152819169337</v>
+        <v>22.95501511606974</v>
       </c>
       <c r="H48">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I48">
-        <v>40.84680603961815</v>
+        <v>70.06965397753648</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>19.73191577217297</v>
+        <v>33.84863210917968</v>
       </c>
       <c r="C49">
-        <v>0.2328035194617259</v>
+        <v>0.3993571012042905</v>
       </c>
       <c r="D49">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="E49">
-        <v>3.865347420673368</v>
+        <v>6.630715655144473</v>
       </c>
       <c r="F49">
-        <v>3.124151613336596</v>
+        <v>5.359249443090702</v>
       </c>
       <c r="G49">
-        <v>12.10709693534162</v>
+        <v>20.76882320025357</v>
       </c>
       <c r="H49">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I49">
-        <v>44.50169539883785</v>
+        <v>76.339344500666</v>
       </c>
     </row>
   </sheetData>
